--- a/output/1Y_P36_KFSDIV.xlsx
+++ b/output/1Y_P36_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.8804</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.6268</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="F3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="H3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0538</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>15.3636</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.1169</v>
+        <v>1401.3101</v>
       </c>
       <c r="F4" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="H4" s="1">
-        <v>21572.29</v>
+        <v>21486.147</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21572.29</v>
+        <v>21486.147</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2438</v>
+        <v>14.2724</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0504</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.8711</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E5" s="1">
-        <v>2055.006</v>
+        <v>2050.8969</v>
       </c>
       <c r="F5" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="H5" s="1">
-        <v>28505.1935</v>
+        <v>28391.3864</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28505.1935</v>
+        <v>28391.3864</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5985</v>
+        <v>14.6277</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>631.8526000000001</v>
+        <v>630.5895</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9368.1474</v>
+        <v>-9369.4105</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.0983</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.1252</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E6" s="1">
-        <v>2775.9293</v>
+        <v>2770.3783</v>
       </c>
       <c r="F6" s="1">
-        <v>713.5461</v>
+        <v>712.1082</v>
       </c>
       <c r="H6" s="1">
-        <v>39210.5572</v>
+        <v>39054.0231</v>
       </c>
       <c r="I6" s="1">
-        <v>631.8526000000001</v>
+        <v>630.5895</v>
       </c>
       <c r="J6" s="1">
-        <v>39842.4098</v>
+        <v>39684.6127</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4096</v>
+        <v>14.4385</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10078.9816</v>
+        <v>-10078.8237</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0347</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.1934</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>3489.4755</v>
+        <v>3482.4865</v>
       </c>
       <c r="F7" s="1">
-        <v>710.1174999999999</v>
+        <v>708.6883</v>
       </c>
       <c r="H7" s="1">
-        <v>49527.521</v>
+        <v>49329.4218</v>
       </c>
       <c r="I7" s="1">
-        <v>552.871</v>
+        <v>551.7658</v>
       </c>
       <c r="J7" s="1">
-        <v>50080.392</v>
+        <v>49881.1876</v>
       </c>
       <c r="K7" s="1">
-        <v>50078.9816</v>
+        <v>50078.8237</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3514</v>
+        <v>14.3802</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10078.9816</v>
+        <v>-10078.8237</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>14.1176</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E8" s="1">
-        <v>4199.5929</v>
+        <v>4191.1749</v>
       </c>
       <c r="F8" s="1">
-        <v>713.9302</v>
+        <v>712.4908</v>
       </c>
       <c r="H8" s="1">
-        <v>59288.1734</v>
+        <v>59051.1392</v>
       </c>
       <c r="I8" s="1">
-        <v>473.8894</v>
+        <v>472.9421</v>
       </c>
       <c r="J8" s="1">
-        <v>59762.0629</v>
+        <v>59524.0813</v>
       </c>
       <c r="K8" s="1">
-        <v>60157.9631</v>
+        <v>60157.6474</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3247</v>
+        <v>14.3534</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1570.264</v>
+        <v>1567.1189</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8508.7176</v>
+        <v>-8511.7047</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>15.3311</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E9" s="1">
-        <v>4913.5232</v>
+        <v>4903.6657</v>
       </c>
       <c r="F9" s="1">
-        <v>677.9053</v>
+        <v>676.4992999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75329.7154</v>
+        <v>75028.0463</v>
       </c>
       <c r="I9" s="1">
-        <v>1965.1718</v>
+        <v>1961.2374</v>
       </c>
       <c r="J9" s="1">
-        <v>77294.8872</v>
+        <v>76989.2837</v>
       </c>
       <c r="K9" s="1">
-        <v>70236.94469999999</v>
+        <v>70236.4711</v>
       </c>
       <c r="L9" s="1">
-        <v>14.2946</v>
+        <v>14.3233</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10393.0344</v>
+        <v>-10392.2475</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.108</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>15.3637</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E10" s="1">
-        <v>5591.4285</v>
+        <v>5580.165</v>
       </c>
       <c r="F10" s="1">
-        <v>676.4669</v>
+        <v>675.0624</v>
       </c>
       <c r="H10" s="1">
-        <v>85905.0303</v>
+        <v>85560.6701</v>
       </c>
       <c r="I10" s="1">
-        <v>1572.1375</v>
+        <v>1568.9899</v>
       </c>
       <c r="J10" s="1">
-        <v>87477.1678</v>
+        <v>87129.66</v>
       </c>
       <c r="K10" s="1">
-        <v>80629.9791</v>
+        <v>80628.71859999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.4203</v>
+        <v>14.4492</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10393.0344</v>
+        <v>-10392.2475</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>14.6447</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E11" s="1">
-        <v>6267.8954</v>
+        <v>6255.2274</v>
       </c>
       <c r="F11" s="1">
-        <v>709.6789</v>
+        <v>708.2082</v>
       </c>
       <c r="H11" s="1">
-        <v>91791.4479</v>
+        <v>91422.6501</v>
       </c>
       <c r="I11" s="1">
-        <v>1179.1031</v>
+        <v>1176.7424</v>
       </c>
       <c r="J11" s="1">
-        <v>92970.55100000001</v>
+        <v>92599.3925</v>
       </c>
       <c r="K11" s="1">
-        <v>91023.0135</v>
+        <v>91020.966</v>
       </c>
       <c r="L11" s="1">
-        <v>14.5221</v>
+        <v>14.5512</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>5032.2857</v>
+        <v>5022.1485</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5360.7487</v>
+        <v>-5370.099</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0462</v>
+        <v>-0.0466</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>15.486</v>
       </c>
       <c r="C12" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D12" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E12" s="1">
-        <v>6977.5743</v>
+        <v>6963.4356</v>
       </c>
       <c r="F12" s="1">
-        <v>833.6031</v>
+        <v>831.5603</v>
       </c>
       <c r="H12" s="1">
-        <v>108054.7155</v>
+        <v>107619.8971</v>
       </c>
       <c r="I12" s="1">
-        <v>5818.3544</v>
+        <v>5806.6435</v>
       </c>
       <c r="J12" s="1">
-        <v>113873.0699</v>
+        <v>113426.5405</v>
       </c>
       <c r="K12" s="1">
-        <v>101416.0478</v>
+        <v>101413.2135</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5346</v>
+        <v>14.5637</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12909.1772</v>
+        <v>-12903.3217</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1059</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>16.1958</v>
       </c>
       <c r="C13" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D13" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E13" s="1">
-        <v>7811.1774</v>
+        <v>7794.9959</v>
       </c>
       <c r="F13" s="1">
-        <v>797.0694</v>
+        <v>795.1172</v>
       </c>
       <c r="H13" s="1">
-        <v>126507.4853</v>
+        <v>125993.6372</v>
       </c>
       <c r="I13" s="1">
-        <v>2909.1772</v>
+        <v>2903.3217</v>
       </c>
       <c r="J13" s="1">
-        <v>129416.6625</v>
+        <v>128896.9589</v>
       </c>
       <c r="K13" s="1">
-        <v>114325.225</v>
+        <v>114316.5352</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6361</v>
+        <v>14.6654</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12909.1772</v>
+        <v>-12903.3217</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0448</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>16.4264</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E14" s="1">
-        <v>8608.246800000001</v>
+        <v>8590.1132</v>
       </c>
       <c r="F14" s="1">
-        <v>-8608.246800000001</v>
+        <v>-8590.1132</v>
       </c>
       <c r="H14" s="1">
-        <v>141402.5053</v>
+        <v>140822.8793</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>141402.5053</v>
+        <v>140822.8793</v>
       </c>
       <c r="K14" s="1">
-        <v>127234.4022</v>
+        <v>127219.857</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7805</v>
+        <v>14.81</v>
       </c>
       <c r="M14" s="1">
         <v>0.75</v>
       </c>
       <c r="N14" s="1">
-        <v>5272.5447</v>
+        <v>5261.6223</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>146675.05</v>
+        <v>146084.5016</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0142</v>
+        <v>0.0139</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.8804</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.6268</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="F3" s="1">
-        <v>646.9127</v>
+        <v>651.0879</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9462.263300000001</v>
+        <v>-9542.409799999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0538</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>15.3636</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E4" s="1">
-        <v>1367.3531</v>
+        <v>1370.0882</v>
       </c>
       <c r="F4" s="1">
-        <v>585.3143</v>
+        <v>586.4888</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21007.4657</v>
+        <v>21007.4259</v>
       </c>
       <c r="I4" s="1">
-        <v>537.7367</v>
+        <v>457.5902</v>
       </c>
       <c r="J4" s="1">
-        <v>21545.2024</v>
+        <v>21465.016</v>
       </c>
       <c r="K4" s="1">
-        <v>19462.2633</v>
+        <v>19542.4098</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2335</v>
+        <v>14.2636</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8992.534299999999</v>
+        <v>-9028.6432</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0491</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.8711</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E5" s="1">
-        <v>1952.6673</v>
+        <v>1956.577</v>
       </c>
       <c r="F5" s="1">
-        <v>832.3206</v>
+        <v>822.2915</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27085.644</v>
+        <v>27085.6785</v>
       </c>
       <c r="I5" s="1">
-        <v>1545.2024</v>
+        <v>1428.947</v>
       </c>
       <c r="J5" s="1">
-        <v>28630.8464</v>
+        <v>28514.6255</v>
       </c>
       <c r="K5" s="1">
-        <v>28454.7976</v>
+        <v>28571.053</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5723</v>
+        <v>14.6026</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>615.3089</v>
+        <v>616.5397</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10929.8935</v>
+        <v>-10812.4073</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0924</v>
+        <v>-0.09379999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.1252</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.988</v>
+        <v>2778.8685</v>
       </c>
       <c r="F6" s="1">
-        <v>751.5157</v>
+        <v>750.1</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39338.5118</v>
+        <v>39173.7094</v>
       </c>
       <c r="I6" s="1">
-        <v>615.3089</v>
+        <v>616.5397</v>
       </c>
       <c r="J6" s="1">
-        <v>39953.8207</v>
+        <v>39790.2491</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3627</v>
+        <v>14.3943</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10615.3089</v>
+        <v>-10616.5397</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0342</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.1934</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>3536.5036</v>
+        <v>3528.9685</v>
       </c>
       <c r="F7" s="1">
-        <v>690.8133</v>
+        <v>703.1459</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50195.0103</v>
+        <v>49987.8383</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50195.0103</v>
+        <v>49987.8383</v>
       </c>
       <c r="K7" s="1">
-        <v>50615.3089</v>
+        <v>50616.5397</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3122</v>
+        <v>14.3432</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9804.9897</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>14.1176</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E8" s="1">
-        <v>4227.3169</v>
+        <v>4232.1143</v>
       </c>
       <c r="F8" s="1">
-        <v>722.149</v>
+        <v>706.9186</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59679.5694</v>
+        <v>59627.9518</v>
       </c>
       <c r="I8" s="1">
-        <v>195.0103</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59874.5796</v>
+        <v>59627.9518</v>
       </c>
       <c r="K8" s="1">
-        <v>60420.2986</v>
+        <v>60616.5397</v>
       </c>
       <c r="L8" s="1">
-        <v>14.2928</v>
+        <v>14.323</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1591.4266</v>
+        <v>1588.0358</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8603.5836</v>
+        <v>-8411.9642</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>15.3311</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E9" s="1">
-        <v>4949.4659</v>
+        <v>4939.033</v>
       </c>
       <c r="F9" s="1">
-        <v>268.6854</v>
+        <v>289.5885</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>75880.7565</v>
+        <v>75569.1798</v>
       </c>
       <c r="I9" s="1">
-        <v>1591.4266</v>
+        <v>1588.0358</v>
       </c>
       <c r="J9" s="1">
-        <v>77472.18309999999</v>
+        <v>77157.2156</v>
       </c>
       <c r="K9" s="1">
-        <v>70615.3089</v>
+        <v>70616.53969999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.2673</v>
+        <v>14.2976</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4119.2435</v>
+        <v>-4448.601</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1087</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>15.3637</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E10" s="1">
-        <v>5218.1513</v>
+        <v>5228.6215</v>
       </c>
       <c r="F10" s="1">
-        <v>639.8126</v>
+        <v>641.0713</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80170.11169999999</v>
+        <v>80170.4531</v>
       </c>
       <c r="I10" s="1">
-        <v>7472.1831</v>
+        <v>7139.4348</v>
       </c>
       <c r="J10" s="1">
-        <v>87642.29489999999</v>
+        <v>87309.8879</v>
       </c>
       <c r="K10" s="1">
-        <v>74734.5524</v>
+        <v>75065.1407</v>
       </c>
       <c r="L10" s="1">
-        <v>14.322</v>
+        <v>14.3566</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9829.888300000001</v>
+        <v>-9868.9728</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>14.6447</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E11" s="1">
-        <v>5857.9639</v>
+        <v>5869.6928</v>
       </c>
       <c r="F11" s="1">
-        <v>970.4450000000001</v>
+        <v>972.4052</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85788.124</v>
+        <v>85787.9084</v>
       </c>
       <c r="I11" s="1">
-        <v>7642.2949</v>
+        <v>7270.462</v>
       </c>
       <c r="J11" s="1">
-        <v>93430.4188</v>
+        <v>93058.3704</v>
       </c>
       <c r="K11" s="1">
-        <v>84564.4406</v>
+        <v>84934.11350000001</v>
       </c>
       <c r="L11" s="1">
-        <v>14.4358</v>
+        <v>14.4699</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4696.3362</v>
+        <v>4705.7593</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9515.5398</v>
+        <v>-9563.315199999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0431</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>15.486</v>
       </c>
       <c r="C12" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D12" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E12" s="1">
-        <v>6828.4089</v>
+        <v>6842.0981</v>
       </c>
       <c r="F12" s="1">
-        <v>274.7811</v>
+        <v>275.3397</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105744.7404</v>
+        <v>105744.6255</v>
       </c>
       <c r="I12" s="1">
-        <v>8126.755</v>
+        <v>7707.1468</v>
       </c>
       <c r="J12" s="1">
-        <v>113871.4954</v>
+        <v>113451.7723</v>
       </c>
       <c r="K12" s="1">
-        <v>98776.3167</v>
+        <v>99203.18799999999</v>
       </c>
       <c r="L12" s="1">
-        <v>14.4655</v>
+        <v>14.4989</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4255.2596</v>
+        <v>-4272.4455</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1009</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>16.1958</v>
       </c>
       <c r="C13" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D13" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E13" s="1">
-        <v>7103.19</v>
+        <v>7117.4377</v>
       </c>
       <c r="F13" s="1">
-        <v>306.1841</v>
+        <v>306.7428</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115041.1339</v>
+        <v>115041.9929</v>
       </c>
       <c r="I13" s="1">
-        <v>13871.4954</v>
+        <v>13434.7013</v>
       </c>
       <c r="J13" s="1">
-        <v>128912.6294</v>
+        <v>128476.6942</v>
       </c>
       <c r="K13" s="1">
-        <v>103031.5763</v>
+        <v>103475.6336</v>
       </c>
       <c r="L13" s="1">
-        <v>14.505</v>
+        <v>14.5383</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4958.8967</v>
+        <v>-4977.8841</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0407</v>
@@ -2086,49 +2086,49 @@
         <v>16.4264</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E14" s="1">
-        <v>7409.3741</v>
+        <v>7424.1806</v>
       </c>
       <c r="F14" s="1">
-        <v>-7409.3741</v>
+        <v>-7424.1806</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121709.3426</v>
+        <v>121709.0464</v>
       </c>
       <c r="I14" s="1">
-        <v>18912.5988</v>
+        <v>18456.8172</v>
       </c>
       <c r="J14" s="1">
-        <v>140621.9414</v>
+        <v>140165.8636</v>
       </c>
       <c r="K14" s="1">
-        <v>107990.473</v>
+        <v>108453.5176</v>
       </c>
       <c r="L14" s="1">
-        <v>14.5748</v>
+        <v>14.6081</v>
       </c>
       <c r="M14" s="1">
         <v>0.75</v>
       </c>
       <c r="N14" s="1">
-        <v>4794.6532</v>
+        <v>4804.2705</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126503.9958</v>
+        <v>126513.3168</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0123</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.8804</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.6268</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="F3" s="1">
-        <v>650.3311</v>
+        <v>654.5132</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9512.263300000001</v>
+        <v>-9592.610199999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0538</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>15.3636</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E4" s="1">
-        <v>1370.7715</v>
+        <v>1373.5135</v>
       </c>
       <c r="F4" s="1">
-        <v>591.6755000000001</v>
+        <v>592.8628</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21059.9844</v>
+        <v>21059.9444</v>
       </c>
       <c r="I4" s="1">
-        <v>487.7367</v>
+        <v>407.3898</v>
       </c>
       <c r="J4" s="1">
-        <v>21547.7211</v>
+        <v>21467.3342</v>
       </c>
       <c r="K4" s="1">
-        <v>19512.2633</v>
+        <v>19592.6102</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2345</v>
+        <v>14.2646</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9090.265600000001</v>
+        <v>-9126.766600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0492</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.8711</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E5" s="1">
-        <v>1962.447</v>
+        <v>1966.3762</v>
       </c>
       <c r="F5" s="1">
-        <v>821.6703</v>
+        <v>811.6199</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27221.2979</v>
+        <v>27221.3326</v>
       </c>
       <c r="I5" s="1">
-        <v>1397.4711</v>
+        <v>1280.6232</v>
       </c>
       <c r="J5" s="1">
-        <v>28618.769</v>
+        <v>28501.9558</v>
       </c>
       <c r="K5" s="1">
-        <v>28602.5289</v>
+        <v>28719.3768</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5749</v>
+        <v>14.6052</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>616.8472</v>
+        <v>618.0811</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10780.6239</v>
+        <v>-10662.5421</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09279999999999999</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.1252</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.1173</v>
+        <v>2777.9961</v>
       </c>
       <c r="F6" s="1">
-        <v>751.6246</v>
+        <v>750.2089</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39326.2132</v>
+        <v>39161.4107</v>
       </c>
       <c r="I6" s="1">
-        <v>616.8472</v>
+        <v>618.0811</v>
       </c>
       <c r="J6" s="1">
-        <v>39943.0604</v>
+        <v>39779.4917</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3672</v>
+        <v>14.3989</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10616.8472</v>
+        <v>-10618.0811</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0343</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.1934</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>3535.7418</v>
+        <v>3528.2049</v>
       </c>
       <c r="F7" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50184.1979</v>
+        <v>49977.0229</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50184.1979</v>
+        <v>49977.0229</v>
       </c>
       <c r="K7" s="1">
-        <v>50616.8472</v>
+        <v>50618.0811</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3467</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>14.1176</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E8" s="1">
-        <v>4240.2946</v>
+        <v>4231.3508</v>
       </c>
       <c r="F8" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59862.7836</v>
+        <v>59617.1941</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59862.7836</v>
+        <v>59617.1941</v>
       </c>
       <c r="K8" s="1">
-        <v>60616.8472</v>
+        <v>60618.0811</v>
       </c>
       <c r="L8" s="1">
-        <v>14.2954</v>
+        <v>14.3259</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1591.0838</v>
+        <v>1587.6922</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8408.9162</v>
+        <v>-8412.3078</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>15.3311</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E9" s="1">
-        <v>4948.6303</v>
+        <v>4938.2694</v>
       </c>
       <c r="F9" s="1">
-        <v>361.7576</v>
+        <v>382.7737</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>75867.94650000001</v>
+        <v>75557.49739999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1591.0838</v>
+        <v>1587.6922</v>
       </c>
       <c r="J9" s="1">
-        <v>77459.0303</v>
+        <v>77145.1897</v>
       </c>
       <c r="K9" s="1">
-        <v>70616.8472</v>
+        <v>70618.0811</v>
       </c>
       <c r="L9" s="1">
-        <v>14.27</v>
+        <v>14.3002</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5546.1413</v>
+        <v>-5880.0927</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1087</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>15.3637</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E10" s="1">
-        <v>5310.3879</v>
+        <v>5321.0431</v>
       </c>
       <c r="F10" s="1">
-        <v>666.1124</v>
+        <v>667.4235</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81587.2065</v>
+        <v>81587.5539</v>
       </c>
       <c r="I10" s="1">
-        <v>6044.9425</v>
+        <v>5707.5995</v>
       </c>
       <c r="J10" s="1">
-        <v>87632.149</v>
+        <v>87295.1534</v>
       </c>
       <c r="K10" s="1">
-        <v>76162.98850000001</v>
+        <v>76498.1738</v>
       </c>
       <c r="L10" s="1">
-        <v>14.3423</v>
+        <v>14.3765</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10233.9518</v>
+        <v>-10274.651</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>14.6447</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E11" s="1">
-        <v>5976.5003</v>
+        <v>5988.4666</v>
       </c>
       <c r="F11" s="1">
-        <v>1007.6143</v>
+        <v>1009.6494</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87524.0545</v>
+        <v>87523.83470000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5810.9907</v>
+        <v>5432.9485</v>
       </c>
       <c r="J11" s="1">
-        <v>93335.04519999999</v>
+        <v>92956.78320000001</v>
       </c>
       <c r="K11" s="1">
-        <v>86396.9403</v>
+        <v>86772.8247</v>
       </c>
       <c r="L11" s="1">
-        <v>14.4561</v>
+        <v>14.49</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4779.3491</v>
+        <v>4788.9388</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9976.8604</v>
+        <v>-10026.6561</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.044</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>15.486</v>
       </c>
       <c r="C12" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D12" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E12" s="1">
-        <v>6984.1147</v>
+        <v>6998.116</v>
       </c>
       <c r="F12" s="1">
-        <v>299.3456</v>
+        <v>299.9536</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108155.9998</v>
+        <v>108155.8822</v>
       </c>
       <c r="I12" s="1">
-        <v>5834.1303</v>
+        <v>5406.2924</v>
       </c>
       <c r="J12" s="1">
-        <v>113990.13</v>
+        <v>113562.1747</v>
       </c>
       <c r="K12" s="1">
-        <v>101153.1498</v>
+        <v>101588.4196</v>
       </c>
       <c r="L12" s="1">
-        <v>14.4833</v>
+        <v>14.5165</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4635.6657</v>
+        <v>-4654.3803</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1031</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>16.1958</v>
       </c>
       <c r="C13" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D13" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E13" s="1">
-        <v>7283.4602</v>
+        <v>7298.0696</v>
       </c>
       <c r="F13" s="1">
-        <v>333.1061</v>
+        <v>333.7173</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117960.7371</v>
+        <v>117961.6179</v>
       </c>
       <c r="I13" s="1">
-        <v>11198.4646</v>
+        <v>10751.9122</v>
       </c>
       <c r="J13" s="1">
-        <v>129159.2018</v>
+        <v>128713.5301</v>
       </c>
       <c r="K13" s="1">
-        <v>105788.8155</v>
+        <v>106242.7999</v>
       </c>
       <c r="L13" s="1">
-        <v>14.5245</v>
+        <v>14.5577</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5394.9199</v>
+        <v>-5415.6307</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0417</v>
@@ -2854,49 +2854,49 @@
         <v>16.4264</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E14" s="1">
-        <v>7616.5664</v>
+        <v>7631.7869</v>
       </c>
       <c r="F14" s="1">
-        <v>-7616.5664</v>
+        <v>-7631.7869</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125112.7656</v>
+        <v>125112.4611</v>
       </c>
       <c r="I14" s="1">
-        <v>15803.5447</v>
+        <v>15336.2814</v>
       </c>
       <c r="J14" s="1">
-        <v>140916.3103</v>
+        <v>140448.7425</v>
       </c>
       <c r="K14" s="1">
-        <v>111183.7354</v>
+        <v>111658.4306</v>
       </c>
       <c r="L14" s="1">
-        <v>14.5976</v>
+        <v>14.6307</v>
       </c>
       <c r="M14" s="1">
         <v>0.75</v>
       </c>
       <c r="N14" s="1">
-        <v>4916.3357</v>
+        <v>4926.197</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130029.1013</v>
+        <v>130038.658</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0126</v>
+        <v>0.0125</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.8804</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.6268</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="F3" s="1">
-        <v>653.7495</v>
+        <v>657.9384</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9562.263300000001</v>
+        <v>-9642.810600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0538</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>15.3636</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E4" s="1">
-        <v>1374.1898</v>
+        <v>1376.9387</v>
       </c>
       <c r="F4" s="1">
-        <v>598.0693</v>
+        <v>599.2693</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21112.5031</v>
+        <v>21112.463</v>
       </c>
       <c r="I4" s="1">
-        <v>437.7367</v>
+        <v>357.1894</v>
       </c>
       <c r="J4" s="1">
-        <v>21550.2397</v>
+        <v>21469.6524</v>
       </c>
       <c r="K4" s="1">
-        <v>19562.2633</v>
+        <v>19642.8106</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2355</v>
+        <v>14.2656</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9188.4969</v>
+        <v>-9225.392099999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0493</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.8711</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E5" s="1">
-        <v>1972.2591</v>
+        <v>1976.208</v>
       </c>
       <c r="F5" s="1">
-        <v>810.984</v>
+        <v>800.9121</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27357.4033</v>
+        <v>27357.4381</v>
       </c>
       <c r="I5" s="1">
-        <v>1249.2397</v>
+        <v>1131.7974</v>
       </c>
       <c r="J5" s="1">
-        <v>28606.643</v>
+        <v>28489.2355</v>
       </c>
       <c r="K5" s="1">
-        <v>28750.7603</v>
+        <v>28868.2026</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5776</v>
+        <v>14.6079</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>618.3854</v>
+        <v>619.6224</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10630.8543</v>
+        <v>-10512.175</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09329999999999999</v>
+        <v>-0.09470000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.1252</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E6" s="1">
-        <v>2783.2431</v>
+        <v>2777.1201</v>
       </c>
       <c r="F6" s="1">
-        <v>751.7335</v>
+        <v>750.3178</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39313.8651</v>
+        <v>39149.0625</v>
       </c>
       <c r="I6" s="1">
-        <v>618.3854</v>
+        <v>619.6224</v>
       </c>
       <c r="J6" s="1">
-        <v>39932.2505</v>
+        <v>39768.685</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3717</v>
+        <v>14.4034</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10618.3854</v>
+        <v>-10619.6224</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0343</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.1934</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>3534.9765</v>
+        <v>3527.4379</v>
       </c>
       <c r="F7" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50173.3359</v>
+        <v>49966.1578</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50173.3359</v>
+        <v>49966.1578</v>
       </c>
       <c r="K7" s="1">
-        <v>50618.3854</v>
+        <v>50619.6224</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3193</v>
+        <v>14.3503</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>14.1176</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E8" s="1">
-        <v>4239.5294</v>
+        <v>4230.5838</v>
       </c>
       <c r="F8" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59851.9796</v>
+        <v>59606.387</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59851.9796</v>
+        <v>59606.387</v>
       </c>
       <c r="K8" s="1">
-        <v>60618.3854</v>
+        <v>60619.6224</v>
       </c>
       <c r="L8" s="1">
-        <v>14.2984</v>
+        <v>14.3289</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1590.7394</v>
+        <v>1587.3471</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8409.2606</v>
+        <v>-8412.652899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>15.3311</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E9" s="1">
-        <v>4947.865</v>
+        <v>4937.5024</v>
       </c>
       <c r="F9" s="1">
-        <v>456.6203</v>
+        <v>477.827</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75856.2138</v>
+        <v>75545.7614</v>
       </c>
       <c r="I9" s="1">
-        <v>1590.7394</v>
+        <v>1587.3471</v>
       </c>
       <c r="J9" s="1">
-        <v>77446.95329999999</v>
+        <v>77133.1085</v>
       </c>
       <c r="K9" s="1">
-        <v>70618.3854</v>
+        <v>70619.62239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.2725</v>
+        <v>14.3027</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7000.4918</v>
+        <v>-7340.2828</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1087</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>15.3637</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E10" s="1">
-        <v>5404.4854</v>
+        <v>5415.3294</v>
       </c>
       <c r="F10" s="1">
-        <v>693.3474</v>
+        <v>694.7125</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83032.8919</v>
+        <v>83033.2454</v>
       </c>
       <c r="I10" s="1">
-        <v>4590.2476</v>
+        <v>4247.0643</v>
       </c>
       <c r="J10" s="1">
-        <v>87623.1395</v>
+        <v>87280.3097</v>
       </c>
       <c r="K10" s="1">
-        <v>77618.8772</v>
+        <v>77959.90519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.3619</v>
+        <v>14.3962</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10652.3808</v>
+        <v>-10694.7521</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>14.6447</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E11" s="1">
-        <v>6097.8327</v>
+        <v>6110.0419</v>
       </c>
       <c r="F11" s="1">
-        <v>951.7345</v>
+        <v>923.5595</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89300.931</v>
+        <v>89300.7066</v>
       </c>
       <c r="I11" s="1">
-        <v>3937.8668</v>
+        <v>3552.3121</v>
       </c>
       <c r="J11" s="1">
-        <v>93238.7978</v>
+        <v>92853.01880000001</v>
       </c>
       <c r="K11" s="1">
-        <v>88271.25810000001</v>
+        <v>88654.65730000001</v>
       </c>
       <c r="L11" s="1">
-        <v>14.4758</v>
+        <v>14.5097</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4864.0368</v>
+        <v>4873.7964</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9073.83</v>
+        <v>-8678.5157</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0449</v>
+        <v>-0.0455</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>15.486</v>
       </c>
       <c r="C12" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D12" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E12" s="1">
-        <v>7049.5673</v>
+        <v>7033.6014</v>
       </c>
       <c r="F12" s="1">
-        <v>419.6531</v>
+        <v>450.6009</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109169.5987</v>
+        <v>108704.3099</v>
       </c>
       <c r="I12" s="1">
-        <v>4864.0368</v>
+        <v>4873.7964</v>
       </c>
       <c r="J12" s="1">
-        <v>114033.6355</v>
+        <v>113578.1064</v>
       </c>
       <c r="K12" s="1">
-        <v>102209.1249</v>
+        <v>102206.9695</v>
       </c>
       <c r="L12" s="1">
-        <v>14.4986</v>
+        <v>14.5312</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6498.748</v>
+        <v>-6991.974</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1046</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>16.1958</v>
       </c>
       <c r="C13" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D13" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E13" s="1">
-        <v>7469.2204</v>
+        <v>7484.2023</v>
       </c>
       <c r="F13" s="1">
-        <v>361.5637</v>
+        <v>362.2304</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120969.2524</v>
+        <v>120970.1556</v>
       </c>
       <c r="I13" s="1">
-        <v>8365.2889</v>
+        <v>7881.8224</v>
       </c>
       <c r="J13" s="1">
-        <v>129334.5412</v>
+        <v>128851.978</v>
       </c>
       <c r="K13" s="1">
-        <v>108707.8728</v>
+        <v>109198.9435</v>
       </c>
       <c r="L13" s="1">
-        <v>14.5541</v>
+        <v>14.5906</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5855.8139</v>
+        <v>-5878.3471</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0427</v>
@@ -3622,49 +3622,49 @@
         <v>16.4264</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E14" s="1">
-        <v>7830.7841</v>
+        <v>7846.4327</v>
       </c>
       <c r="F14" s="1">
-        <v>-7830.7841</v>
+        <v>-7846.4327</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128631.592</v>
+        <v>128631.2789</v>
       </c>
       <c r="I14" s="1">
-        <v>12509.4749</v>
+        <v>12003.4754</v>
       </c>
       <c r="J14" s="1">
-        <v>141141.067</v>
+        <v>140634.7543</v>
       </c>
       <c r="K14" s="1">
-        <v>114563.6868</v>
+        <v>115077.2905</v>
       </c>
       <c r="L14" s="1">
-        <v>14.6299</v>
+        <v>14.6662</v>
       </c>
       <c r="M14" s="1">
         <v>0.75</v>
       </c>
       <c r="N14" s="1">
-        <v>5041.7238</v>
+        <v>5051.8366</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133673.3158</v>
+        <v>133683.1155</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.013</v>
+        <v>0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.8804</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.6268</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="F3" s="1">
-        <v>657.1679</v>
+        <v>661.3636</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10537.7367</v>
+        <v>10495.6788</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9612.263300000001</v>
+        <v>-9693.011</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0538</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>15.3636</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E4" s="1">
-        <v>1377.6082</v>
+        <v>1380.3639</v>
       </c>
       <c r="F4" s="1">
-        <v>604.4956</v>
+        <v>605.7085</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21165.0217</v>
+        <v>21164.9816</v>
       </c>
       <c r="I4" s="1">
-        <v>387.7367</v>
+        <v>306.989</v>
       </c>
       <c r="J4" s="1">
-        <v>21552.7584</v>
+        <v>21471.9706</v>
       </c>
       <c r="K4" s="1">
-        <v>19612.2633</v>
+        <v>19693.011</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2365</v>
+        <v>14.2665</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9287.228300000001</v>
+        <v>-9324.5195</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0494</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.8711</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E5" s="1">
-        <v>1982.1038</v>
+        <v>1986.0724</v>
       </c>
       <c r="F5" s="1">
-        <v>800.2616</v>
+        <v>790.1683</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27493.9601</v>
+        <v>27493.9951</v>
       </c>
       <c r="I5" s="1">
-        <v>1100.5084</v>
+        <v>982.4695</v>
       </c>
       <c r="J5" s="1">
-        <v>28594.4685</v>
+        <v>28476.4646</v>
       </c>
       <c r="K5" s="1">
-        <v>28899.4916</v>
+        <v>29017.5305</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5802</v>
+        <v>14.6105</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>619.9237000000001</v>
+        <v>621.1638</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10480.5847</v>
+        <v>-10361.3058</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09379999999999999</v>
+        <v>-0.09520000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.1252</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E6" s="1">
-        <v>2782.3654</v>
+        <v>2776.2407</v>
       </c>
       <c r="F6" s="1">
-        <v>751.8424</v>
+        <v>750.4267</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39301.4675</v>
+        <v>39136.6649</v>
       </c>
       <c r="I6" s="1">
-        <v>619.9237000000001</v>
+        <v>621.1638</v>
       </c>
       <c r="J6" s="1">
-        <v>39921.3912</v>
+        <v>39757.8287</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3763</v>
+        <v>14.408</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10619.9237</v>
+        <v>-10621.1638</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0344</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.1934</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>3534.2077</v>
+        <v>3526.6673</v>
       </c>
       <c r="F7" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50162.4242</v>
+        <v>49955.243</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50162.4242</v>
+        <v>49955.243</v>
       </c>
       <c r="K7" s="1">
-        <v>50619.9237</v>
+        <v>50621.1638</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3228</v>
+        <v>14.3538</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>14.1176</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E8" s="1">
-        <v>4238.7606</v>
+        <v>4229.8132</v>
       </c>
       <c r="F8" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59841.1261</v>
+        <v>59595.5304</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59841.1261</v>
+        <v>59595.5304</v>
       </c>
       <c r="K8" s="1">
-        <v>60619.9237</v>
+        <v>60621.1638</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3013</v>
+        <v>14.3319</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1590.3935</v>
+        <v>1587.0003</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8409.6065</v>
+        <v>-8412.9997</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>15.3311</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E9" s="1">
-        <v>4947.0963</v>
+        <v>4936.7318</v>
       </c>
       <c r="F9" s="1">
-        <v>553.3826</v>
+        <v>574.7836</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75844.42750000001</v>
+        <v>75533.9718</v>
       </c>
       <c r="I9" s="1">
-        <v>1590.3935</v>
+        <v>1587.0003</v>
       </c>
       <c r="J9" s="1">
-        <v>77434.82090000001</v>
+        <v>77120.9721</v>
       </c>
       <c r="K9" s="1">
-        <v>70619.9237</v>
+        <v>70621.16379999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.275</v>
+        <v>14.3052</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8483.963599999999</v>
+        <v>-8829.710999999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1087</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>15.3637</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E10" s="1">
-        <v>5500.4788</v>
+        <v>5511.5155</v>
       </c>
       <c r="F10" s="1">
-        <v>721.5456</v>
+        <v>722.9668</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84507.7067</v>
+        <v>84508.0665</v>
       </c>
       <c r="I10" s="1">
-        <v>3106.4299</v>
+        <v>2757.2893</v>
       </c>
       <c r="J10" s="1">
-        <v>87614.13649999999</v>
+        <v>87265.3558</v>
       </c>
       <c r="K10" s="1">
-        <v>79103.8873</v>
+        <v>79450.87480000001</v>
       </c>
       <c r="L10" s="1">
-        <v>14.3813</v>
+        <v>14.4154</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11085.6103</v>
+        <v>-11129.7129</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>14.6447</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E11" s="1">
-        <v>6222.0244</v>
+        <v>6234.4823</v>
       </c>
       <c r="F11" s="1">
-        <v>820.8307</v>
+        <v>792.3931</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91119.6814</v>
+        <v>91119.45239999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2020.8196</v>
+        <v>1627.5764</v>
       </c>
       <c r="J11" s="1">
-        <v>93140.501</v>
+        <v>92747.0288</v>
       </c>
       <c r="K11" s="1">
-        <v>90189.4976</v>
+        <v>90580.5877</v>
       </c>
       <c r="L11" s="1">
-        <v>14.4952</v>
+        <v>14.529</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4950.431</v>
+        <v>4960.3639</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7070.3887</v>
+        <v>-6667.2125</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0458</v>
+        <v>-0.0465</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>15.486</v>
       </c>
       <c r="C12" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D12" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E12" s="1">
-        <v>7042.8552</v>
+        <v>7026.8754</v>
       </c>
       <c r="F12" s="1">
-        <v>617.7819</v>
+        <v>649.1275000000001</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109065.655</v>
+        <v>108600.3591</v>
       </c>
       <c r="I12" s="1">
-        <v>4950.431</v>
+        <v>4960.3639</v>
       </c>
       <c r="J12" s="1">
-        <v>114016.086</v>
+        <v>113560.7231</v>
       </c>
       <c r="K12" s="1">
-        <v>102210.3172</v>
+        <v>102208.1641</v>
       </c>
       <c r="L12" s="1">
-        <v>14.5126</v>
+        <v>14.5453</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9566.9699</v>
+        <v>-10072.5117</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1054</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>16.1958</v>
       </c>
       <c r="C13" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D13" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E13" s="1">
-        <v>7660.637</v>
+        <v>7676.0029</v>
       </c>
       <c r="F13" s="1">
-        <v>391.6308</v>
+        <v>392.3561</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124069.379</v>
+        <v>124070.3054</v>
       </c>
       <c r="I13" s="1">
-        <v>5383.461</v>
+        <v>4887.8522</v>
       </c>
       <c r="J13" s="1">
-        <v>129452.8401</v>
+        <v>128958.1576</v>
       </c>
       <c r="K13" s="1">
-        <v>111777.2871</v>
+        <v>112280.6758</v>
       </c>
       <c r="L13" s="1">
-        <v>14.5911</v>
+        <v>14.6275</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6342.7744</v>
+        <v>-6367.2336</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0438</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>16.4264</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D14" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E14" s="1">
-        <v>8052.2678</v>
+        <v>8068.359</v>
       </c>
       <c r="F14" s="1">
-        <v>-8052.2678</v>
+        <v>-8068.359</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>132269.7725</v>
+        <v>132269.4506</v>
       </c>
       <c r="I14" s="1">
-        <v>9040.686600000001</v>
+        <v>8520.6186</v>
       </c>
       <c r="J14" s="1">
-        <v>141310.4591</v>
+        <v>140790.0692</v>
       </c>
       <c r="K14" s="1">
-        <v>118120.0615</v>
+        <v>118647.9093</v>
       </c>
       <c r="L14" s="1">
-        <v>14.6692</v>
+        <v>14.7053</v>
       </c>
       <c r="M14" s="1">
         <v>0.75</v>
       </c>
       <c r="N14" s="1">
-        <v>5170.93</v>
+        <v>5181.302</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137440.7025</v>
+        <v>137450.7525</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0133</v>
+        <v>0.0132</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.7805</v>
+        <v>14.81</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5748</v>
+        <v>14.6081</v>
       </c>
       <c r="E3" s="1">
-        <v>14.5976</v>
+        <v>14.6307</v>
       </c>
       <c r="F3" s="1">
-        <v>14.6299</v>
+        <v>14.6662</v>
       </c>
       <c r="G3" s="1">
-        <v>14.6692</v>
+        <v>14.7053</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1836</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2699</v>
+        <v>0.2573</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2657</v>
+        <v>0.2541</v>
       </c>
       <c r="E4" s="3">
-        <v>0.268</v>
+        <v>0.2564</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2697</v>
+        <v>0.2577</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2709</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,10 +4536,10 @@
         <v>0.1662</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1931</v>
+        <v>0.1927</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1867</v>
+        <v>0.1866</v>
       </c>
       <c r="E5" s="3">
         <v>0.1883</v>
@@ -4548,7 +4548,7 @@
         <v>0.1896</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1908</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9823</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2929</v>
+        <v>1.2302</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3141</v>
+        <v>1.2527</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3153</v>
+        <v>1.2536</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3149</v>
+        <v>1.2522</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3134</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4431</v>
+        <v>0.4328</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4472</v>
+        <v>0.4375</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4477</v>
+        <v>0.438</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4477</v>
+        <v>0.4376</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4471</v>
+        <v>0.4369</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>12506.9469</v>
+        <v>12481.4792</v>
       </c>
       <c r="D8" s="1">
-        <v>11697.7249</v>
+        <v>11714.6053</v>
       </c>
       <c r="E8" s="1">
-        <v>11903.6157</v>
+        <v>11920.909</v>
       </c>
       <c r="F8" s="1">
-        <v>12114.8855</v>
+        <v>12132.6025</v>
       </c>
       <c r="G8" s="1">
-        <v>12331.6781</v>
+        <v>12349.8299</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P36_KFSDIV.xlsx
+++ b/output/1Y_P36_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>13862.9911</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1064</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3036</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.269</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2338</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
